--- a/data/test_output/profile_data.xlsx
+++ b/data/test_output/profile_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -64,39 +64,75 @@
     <t>Jack Cohen</t>
   </si>
   <si>
+    <t>Meredith Garland - Hannifin</t>
+  </si>
+  <si>
+    <t>Sharif Nesheiwat</t>
+  </si>
+  <si>
     <t>1 yr 11 mos</t>
   </si>
   <si>
     <t>6 mos</t>
   </si>
   <si>
+    <t>3 yrs 8 mos</t>
+  </si>
+  <si>
+    <t>1 yr 9 mos</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/sales/people/ACwAAAHxDx4BUJXTt_rcTqQSYOno-oQlWQv_0iA,NAME_SEARCH,5yn8?_ntb=zfI%2F5jnPSQCCW7TRpgy9Sg%3D%3D</t>
   </si>
   <si>
     <t>https://www.linkedin.com/sales/people/ACwAAAFlkAcBSQO8c0xE-Tl58NS49eCPra3GQuY,NAME_SEARCH,_toW?_ntb=zfI%2F5jnPSQCCW7TRpgy9Sg%3D%3D</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/sales/people/ACwAAAEx6uYBVwMAduuVimkYLcc09QIut2uubfI,NAME_SEARCH,HPsM?_ntb=zfI%2F5jnPSQCCW7TRpgy9Sg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/sales/people/ACwAAAHXP3YBnIvQyBIVNSvYcphSVtSCcLJpxJM,NAME_SEARCH,84mU?_ntb=zfI%2F5jnPSQCCW7TRpgy9Sg%3D%3D</t>
+  </si>
+  <si>
     <t>mcharlton@bankofthesierra.com</t>
   </si>
   <si>
     <t>jack@extra.app</t>
   </si>
   <si>
+    <t>sharif.nesheiwat@gartner.com</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Baldwin Wallace University</t>
   </si>
   <si>
     <t>Clark University</t>
   </si>
   <si>
+    <t>Oklahoma State University</t>
+  </si>
+  <si>
+    <t>Columbia University in the City of New York</t>
+  </si>
+  <si>
     <t>Cincinnati</t>
   </si>
   <si>
     <t>Greater Boston</t>
   </si>
   <si>
+    <t>Dallas-Fort Worth Metroplex</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Ohio</t>
   </si>
   <si>
@@ -106,25 +142,52 @@
     <t>Extra Card</t>
   </si>
   <si>
+    <t>Exeter Finance</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/sales/company/731520?_ntb=zfI%2F5jnPSQCCW7TRpgy9Sg%3D%3D</t>
   </si>
   <si>
     <t>https://www.linkedin.com/sales/company/34768984?_ntb=zfI%2F5jnPSQCCW7TRpgy9Sg%3D%3D</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/sales/company/1482824?_ntb=zfI%2F5jnPSQCCW7TRpgy9Sg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/sales/company/64697619?_ntb=zfI%2F5jnPSQCCW7TRpgy9Sg%3D%3D</t>
+  </si>
+  <si>
     <t xml:space="preserve">Banking </t>
   </si>
   <si>
     <t xml:space="preserve">Financial Services </t>
   </si>
   <si>
+    <t xml:space="preserve">Internet </t>
+  </si>
+  <si>
     <t>Porterville</t>
   </si>
   <si>
     <t>Los Angeles</t>
   </si>
   <si>
+    <t>Irving</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
     <t xml:space="preserve"> California</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Texas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New York</t>
   </si>
 </sst>
 </file>
@@ -495,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,43 +613,43 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K2">
         <v>286</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -594,43 +657,128 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K3">
         <v>67</v>
       </c>
       <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="M3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4">
+        <v>1000</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -639,6 +787,10 @@
     <hyperlink ref="J2" r:id="rId2"/>
     <hyperlink ref="C3" r:id="rId3"/>
     <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="J4" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId7"/>
+    <hyperlink ref="J5" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/test_output/profile_data.xlsx
+++ b/data/test_output/profile_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -64,34 +64,16 @@
     <t>Jack Cohen</t>
   </si>
   <si>
-    <t>Meredith Garland - Hannifin</t>
-  </si>
-  <si>
-    <t>Sharif Nesheiwat</t>
-  </si>
-  <si>
     <t>1 yr 11 mos</t>
   </si>
   <si>
     <t>6 mos</t>
   </si>
   <si>
-    <t>3 yrs 8 mos</t>
-  </si>
-  <si>
-    <t>1 yr 9 mos</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/sales/people/ACwAAAHxDx4BUJXTt_rcTqQSYOno-oQlWQv_0iA,NAME_SEARCH,5yn8?_ntb=zfI%2F5jnPSQCCW7TRpgy9Sg%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/sales/people/ACwAAAFlkAcBSQO8c0xE-Tl58NS49eCPra3GQuY,NAME_SEARCH,_toW?_ntb=zfI%2F5jnPSQCCW7TRpgy9Sg%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/sales/people/ACwAAAEx6uYBVwMAduuVimkYLcc09QIut2uubfI,NAME_SEARCH,HPsM?_ntb=zfI%2F5jnPSQCCW7TRpgy9Sg%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/sales/people/ACwAAAHXP3YBnIvQyBIVNSvYcphSVtSCcLJpxJM,NAME_SEARCH,84mU?_ntb=zfI%2F5jnPSQCCW7TRpgy9Sg%3D%3D</t>
+    <t>https://www.linkedin.com/sales/people/ACwAAAHxDx4BUJXTt_rcTqQSYOno-oQlWQv_0iA,NAME_SEARCH,5yn8?_ntb=vpmzudUCQaSmsM%2BXcXj%2BRQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/sales/people/ACwAAAFlkAcBSQO8c0xE-Tl58NS49eCPra3GQuY,NAME_SEARCH,_toW?_ntb=vpmzudUCQaSmsM%2BXcXj%2BRQ%3D%3D</t>
   </si>
   <si>
     <t>mcharlton@bankofthesierra.com</t>
@@ -100,39 +82,21 @@
     <t>jack@extra.app</t>
   </si>
   <si>
-    <t>sharif.nesheiwat@gartner.com</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Baldwin Wallace University</t>
   </si>
   <si>
     <t>Clark University</t>
   </si>
   <si>
-    <t>Oklahoma State University</t>
-  </si>
-  <si>
-    <t>Columbia University in the City of New York</t>
-  </si>
-  <si>
     <t>Cincinnati</t>
   </si>
   <si>
     <t>Greater Boston</t>
   </si>
   <si>
-    <t>Dallas-Fort Worth Metroplex</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ohio</t>
   </si>
   <si>
@@ -142,22 +106,10 @@
     <t>Extra Card</t>
   </si>
   <si>
-    <t>Exeter Finance</t>
-  </si>
-  <si>
-    <t>Voice</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/sales/company/731520?_ntb=zfI%2F5jnPSQCCW7TRpgy9Sg%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/sales/company/34768984?_ntb=zfI%2F5jnPSQCCW7TRpgy9Sg%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/sales/company/1482824?_ntb=zfI%2F5jnPSQCCW7TRpgy9Sg%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/sales/company/64697619?_ntb=zfI%2F5jnPSQCCW7TRpgy9Sg%3D%3D</t>
+    <t>https://www.linkedin.com/sales/company/731520?_ntb=vpmzudUCQaSmsM%2BXcXj%2BRQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/sales/company/34768984?_ntb=vpmzudUCQaSmsM%2BXcXj%2BRQ%3D%3D</t>
   </si>
   <si>
     <t xml:space="preserve">Banking </t>
@@ -166,28 +118,13 @@
     <t xml:space="preserve">Financial Services </t>
   </si>
   <si>
-    <t xml:space="preserve">Internet </t>
-  </si>
-  <si>
     <t>Porterville</t>
   </si>
   <si>
     <t>Los Angeles</t>
   </si>
   <si>
-    <t>Irving</t>
-  </si>
-  <si>
-    <t>Brooklyn</t>
-  </si>
-  <si>
     <t xml:space="preserve"> California</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Texas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New York</t>
   </si>
 </sst>
 </file>
@@ -558,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,43 +550,43 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="K2">
         <v>286</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -657,128 +594,43 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>67</v>
       </c>
       <c r="L3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4">
-        <v>1000</v>
-      </c>
-      <c r="L4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5">
-        <v>101</v>
-      </c>
-      <c r="L5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -787,10 +639,6 @@
     <hyperlink ref="J2" r:id="rId2"/>
     <hyperlink ref="C3" r:id="rId3"/>
     <hyperlink ref="J3" r:id="rId4"/>
-    <hyperlink ref="C4" r:id="rId5"/>
-    <hyperlink ref="J4" r:id="rId6"/>
-    <hyperlink ref="C5" r:id="rId7"/>
-    <hyperlink ref="J5" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
